--- a/biology/Histoire de la zoologie et de la botanique/Charles_Valentine_Riley/Charles_Valentine_Riley.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Valentine_Riley/Charles_Valentine_Riley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Valentine Riley est un entomologiste américain d’origine britannique, né le 18 septembre 1843 à Chelsea et mort le 14 septembre 1895 à Washington.
 En 1868, huit ans après son immigration aux États-Unis, Riley devient entomologiste d’État dans le Missouri. En 1876, il dirige la Commission fédérale de l’entomologie chargée de coordonner la lutte contre le criquet des Montagnes rocheuses (Melanoplus spretus (Walsh, 1866)) qui dévaste les États du Midwest et de l’Ouest des États-Unis. Cette espèce avait été découverte seulement dix ans auparavant par Benjamin Dann Walsh (1808-1869).
